--- a/contacts 3.xlsx
+++ b/contacts 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leocr\Desktop\iad-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B77069D-9A6D-4981-B8DF-30463A360DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A5238A-076A-4E92-83CD-FFEFC52A0384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
